--- a/biology/Botanique/Chamaecrista/Chamaecrista.xlsx
+++ b/biology/Botanique/Chamaecrista/Chamaecrista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaecrista est un genre de plantes dicotylédones de la famille des Caesalpiniaceae, ou des Fabaceae, sous-famille des Caesalpinioideae, selon la classification phylogénétique.
 Les espèces de ce genre ont longtemps été rattachées au genre Cassia. Ce n'est que depuis le début des années 1980 que le genre Chamaecrista est considéré comme un genre à part entière. (Un autre genre a été détaché du genre Cassia, le genre Senna.)
@@ -512,9 +524,11 @@
           <t>Pollinisation assistée par le son du bourdonnement d'insectes pollinisateurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études de Bioacoustique végétale ont récemment montré que Chamaecrista chamaecristoides libère son pollen quand sa fleur est exposée à la vibration correspondant au bourdonnement des ailes de son pollinisateur[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études de Bioacoustique végétale ont récemment montré que Chamaecrista chamaecristoides libère son pollen quand sa fleur est exposée à la vibration correspondant au bourdonnement des ailes de son pollinisateur
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (30 juin 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (30 juin 2013) :
 Chamaecrista absus (L.) Irwin et Barneby
 Chamaecrista calycioides (DC. ex Colladon) Greene
 Chamaecrista chamaecristoides (Colladon) Greene
@@ -566,7 +582,7 @@
 Chamaecrista ramosa (Vogel) Irwin et Barneby
 Chamaecrista rotundifolia (Pers.) Greene
 Chamaecrista serpens (L.) Greene
-Selon Tropicos                                           (30 juin 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Chamaecrista absus (L.) H.S. Irwin &amp; Barneby
 Chamaecrista acosmifolia (Mart. ex Benth.) H.S. Irwin &amp; Barneby
 Chamaecrista adamantina (H.S. Irwin &amp; Barneby) H.S. Irwin &amp; Barneby
